--- a/src/test/resources/test_data/Payment_Flow/PaymentFlow.xlsx
+++ b/src/test/resources/test_data/Payment_Flow/PaymentFlow.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DesktopWorkspace\automationdesktopsite\src\test\resources\test_data\Payment_Flow\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="330" windowWidth="14775" windowHeight="2640"/>
   </bookViews>
@@ -10,9 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>cityName</t>
   </si>
@@ -70,9 +74,6 @@
     <t>GuestNumber</t>
   </si>
   <si>
-    <t>15-12-2018</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -86,13 +87,22 @@
   </si>
   <si>
     <t>FabHotel Transit</t>
+  </si>
+  <si>
+    <t>checkInMonth</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -462,67 +472,70 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="8" style="2"/>
     <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="31.5">
+    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -531,27 +544,30 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>12</v>
       </c>
     </row>
